--- a/SPPSApi/Doc/Template/FS0309_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_Export.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7887B7-93A6-48D0-A6B5-3A14D8CFF80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,9 +114,6 @@
     <t>原价</t>
   </si>
   <si>
-    <t>原价*系数</t>
-  </si>
-  <si>
     <t>TNP含税</t>
   </si>
   <si>
@@ -123,12 +121,16 @@
   </si>
   <si>
     <t>价格结束</t>
+  </si>
+  <si>
+    <t>参考值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,19 +194,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -215,6 +220,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -263,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,9 +304,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,6 +356,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -527,7 +569,7 @@
     <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" customWidth="1"/>
     <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -541,7 +583,7 @@
     <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -615,7 +657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -655,16 +697,16 @@
         <v>29</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -679,6 +721,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A1:A2"/>
@@ -691,14 +741,6 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:V1"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -707,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -720,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SPPSApi/Doc/Template/FS0309_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_Export.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7887B7-93A6-48D0-A6B5-3A14D8CFF80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>变更事项</t>
   </si>
@@ -124,13 +123,17 @@
   </si>
   <si>
     <t>参考值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,14 +205,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -271,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,26 +307,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,23 +342,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,199 +517,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" customWidth="1"/>
-    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" customWidth="1"/>
+    <col min="21" max="21" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="3" t="s">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="2" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AE1:AE2"/>
+  <mergeCells count="21">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="AE1:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -749,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -762,7 +736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SPPSApi/Doc/Template/FS0309_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_Export.xlsx
@@ -107,9 +107,6 @@
     <t>进度日期</t>
   </si>
   <si>
-    <t>公式选择</t>
-  </si>
-  <si>
     <t>原价</t>
   </si>
   <si>
@@ -127,6 +124,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +522,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -554,7 +555,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -664,22 +665,22 @@
         <v>27</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -694,6 +695,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="F1:J1"/>
@@ -707,14 +716,6 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:W1"/>
     <mergeCell ref="X1:X2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0309_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_Export.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54AB1F1-BA0B-4141-8B3E-75B01DC9495A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>变更事项</t>
   </si>
@@ -30,9 +31,6 @@
     <t>使用结束</t>
   </si>
   <si>
-    <t>工程/供应商信息</t>
-  </si>
-  <si>
     <t>号旧</t>
   </si>
   <si>
@@ -43,9 +41,6 @@
   </si>
   <si>
     <t>旧型持续开始</t>
-  </si>
-  <si>
-    <t>价格处理栏</t>
   </si>
   <si>
     <t>车型
@@ -134,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,10 +205,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,9 +300,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,6 +352,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,44 +544,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" customWidth="1"/>
-    <col min="21" max="21" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.08984375" customWidth="1"/>
+    <col min="21" max="21" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -569,154 +595,92 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:X2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -724,12 +688,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -737,12 +701,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0309_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_Export.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54AB1F1-BA0B-4141-8B3E-75B01DC9495A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC4DB9-A9EB-46EE-A5D2-184CC5995EF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,6 +207,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -547,14 +551,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
@@ -586,7 +588,7 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">

--- a/SPPSApi/Doc/Template/FS0309_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_Export.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC4DB9-A9EB-46EE-A5D2-184CC5995EF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F7BBB-89A6-4A74-8A87-EDC1A82992C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>变更事项</t>
   </si>
@@ -41,30 +41,12 @@
   </si>
   <si>
     <t>旧型持续开始</t>
-  </si>
-  <si>
-    <t>车型
-（开发）</t>
-  </si>
-  <si>
-    <t>车型
-（设计）</t>
-  </si>
-  <si>
-    <t>品名</t>
-  </si>
-  <si>
-    <t>OE＝SP</t>
   </si>
   <si>
     <t>号口品番
 （参考）</t>
   </si>
   <si>
-    <t>防锈
-区分</t>
-  </si>
-  <si>
     <t>防锈指示书</t>
   </si>
   <si>
@@ -123,13 +105,37 @@
   </si>
   <si>
     <t>公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型（开发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型（设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OE=SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防锈区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,19 +210,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2F2B6838-05DE-42B8-A9D6-ABCEE7E02D00}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -549,14 +580,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
@@ -581,105 +614,108 @@
     <col min="33" max="33" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
